--- a/clients_list/1.xlsx
+++ b/clients_list/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxin\Mi unidad\Planes y Campañas\Nov-Dic 25\Maxi\Mis Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68FF4D71E72A0106/AutoCredito Planes/clients_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE06FF54-D4F9-403F-B681-104CCA6CAA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FE06FF54-D4F9-403F-B681-104CCA6CAA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBFA5E89-01EA-46E7-829A-03C2A43882DE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1067,17 +1067,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1086,206 +1076,6 @@
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF92D050"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF92D050"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -1330,15 +1120,40 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <gradientFill degree="90">
           <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
+            <color theme="0"/>
           </stop>
           <stop position="1">
-            <color theme="8" tint="-0.25098422193060094"/>
+            <color theme="6" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF92D050"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
           </stop>
         </gradientFill>
       </fill>
@@ -1360,66 +1175,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF92D050"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
@@ -1433,61 +1188,6 @@
         </gradientFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF92D050"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1499,6 +1199,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1704,8 +1408,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31991,41 +31695,41 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="ONIX 1.2 LT MT">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="ONIX 1.0T AT PREMIER">
+      <formula>NOT(ISERROR(SEARCH("ONIX 1.0T AT PREMIER",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="ONIX 1.0T MT PREMIER">
+      <formula>NOT(ISERROR(SEARCH("ONIX 1.0T MT PREMIER",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="ONIX 1.2 LT MT TECH">
+      <formula>NOT(ISERROR(SEARCH("ONIX 1.2 LT MT TECH",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="ONIX 1.2 MT">
+      <formula>NOT(ISERROR(SEARCH("ONIX 1.2 MT",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="ONIX 1.2 LT MT">
       <formula>NOT(ISERROR(SEARCH("ONIX 1.2 LT MT",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="ONIX 1.2 MT">
-      <formula>NOT(ISERROR(SEARCH("ONIX 1.2 MT",A1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K100">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>$K$26</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="ONIX 1.2 LT MT TECH">
-      <formula>NOT(ISERROR(SEARCH("ONIX 1.2 LT MT TECH",A1)))</formula>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>$K$13</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="ONIX 1.0T MT PREMIER">
-      <formula>NOT(ISERROR(SEARCH("ONIX 1.0T MT PREMIER",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="ONIX 1.0T AT PREMIER">
-      <formula>NOT(ISERROR(SEARCH("ONIX 1.0T AT PREMIER",A1)))</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"ONIX JOY 5P 1.4 N LS MT +"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K101">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"ONIX 1.4 N LT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76:K101">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"ONIX 1.4 MT LT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K100">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"ONIX JOY 5P 1.4 N LS MT +"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$K$13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>$K$26</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
